--- a/biology/Botanique/Chaton_(botanique)/Chaton_(botanique).xlsx
+++ b/biology/Botanique/Chaton_(botanique)/Chaton_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, le chaton est une inflorescence souple, généralement pendante, caractéristique de certains arbres appartenant aux familles des Salicacées, des Fagacées, des Bétulacées, des Moracées et des Pinaceae.
-Ces plantes qui portent des chatons en guise de fleurs sont dites « amentifères ». Du point de vue taxonomique, le groupe des Amentiferae est plus connu sous le terme de Hamamelididae. Cette sous-classe est cependant obsolète dans la classification phylogénétique car elle constitue un groupe polyphylétique[1].
+Ces plantes qui portent des chatons en guise de fleurs sont dites « amentifères ». Du point de vue taxonomique, le groupe des Amentiferae est plus connu sous le terme de Hamamelididae. Cette sous-classe est cependant obsolète dans la classification phylogénétique car elle constitue un groupe polyphylétique.
 Il peut s’agir d’inflorescences simples, en fait des épis particuliers, comme chez le saule. Les fleurs mâles et femelles sont séparées : il y a des chatons mâles et des chatons femelles. Ils portent des fleurs simplifiées insérées à l’aisselle des bractées, sans périanthe (c’est-à-dire ni pétales, ni sépales), les fleurs mâles sont réduites aux étamines, et les fleurs femelles aux ovaires.
 Dans d’autres cas, ce sont des inflorescences composées, comme chez le bouleau (où le chaton est un épi de cyme).
 Les chatons apparaissent au printemps, parfois avant l’apparition des feuilles.
